--- a/admin/controllers/thisMonthReport.xlsx
+++ b/admin/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Order ID</t>
   </si>
@@ -31,7 +31,7 @@
     <t>63e1d7198db3f87bb229bb25</t>
   </si>
   <si>
-    <t>Het Patel</t>
+    <t>Het B. Patel</t>
   </si>
   <si>
     <t>400</t>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>KOT</t>
+  </si>
+  <si>
+    <t>63e22be88db3f87bb229bb74</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63e22d478db3f87bb229bc52</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -86,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -126,6 +144,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin/controllers/thisMonthReport.xlsx
+++ b/admin/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,10 +28,22 @@
     <t>Payment Mode</t>
   </si>
   <si>
-    <t>63e1d7198db3f87bb229bb25</t>
+    <t>63e22be88db3f87bb229bb74</t>
   </si>
   <si>
-    <t>Het Patel</t>
+    <t>Het B. Patel</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
+    <t>63e1d7198db3f87bb229bb25</t>
   </si>
   <si>
     <t>400</t>
@@ -40,7 +52,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>KOT</t>
+    <t>63e22d478db3f87bb229bc52</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -86,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -126,6 +144,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin/controllers/thisMonthReport.xlsx
+++ b/admin/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Order ID</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>63e22d478db3f87bb229bc52</t>
-  </si>
-  <si>
-    <t>Ayushi</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
 </sst>
 </file>
@@ -104,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -161,23 +152,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin/controllers/thisMonthReport.xlsx
+++ b/admin/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,28 +28,19 @@
     <t>Payment Mode</t>
   </si>
   <si>
-    <t>63e1d7198db3f87bb229bb25</t>
+    <t>63dfe8107771d34b50ec1f77</t>
   </si>
   <si>
-    <t>Het B. Patel</t>
+    <t>het</t>
   </si>
   <si>
-    <t>400</t>
+    <t>360</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
     <t>KOT</t>
-  </si>
-  <si>
-    <t>63e22be88db3f87bb229bb74</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -95,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -135,23 +126,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin/controllers/thisMonthReport.xlsx
+++ b/admin/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Order ID</t>
   </si>
@@ -41,6 +41,141 @@
   </si>
   <si>
     <t>KOT</t>
+  </si>
+  <si>
+    <t>63e1d5998db3f87bb229b9f2</t>
+  </si>
+  <si>
+    <t>Het B. Patel</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63e1d7198db3f87bb229bb25</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>63e22be88db3f87bb229bb74</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>63e22d478db3f87bb229bc52</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>63e22f0f8db3f87bb229bf35</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>63e22f5e8db3f87bb229bf95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63e22f708db3f87bb229c035</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>63e40de811e4eb3328e954f0</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>63e22f938db3f87bb229c08a</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>63e486d511e4eb3328e96458</t>
+  </si>
+  <si>
+    <t>kandarp shah</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>63e48b7311e4eb3328e965ad</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>63e4882611e4eb3328e964db</t>
+  </si>
+  <si>
+    <t>63e4926111e4eb3328e96993</t>
+  </si>
+  <si>
+    <t>63e551ac4bde7a495d8ec7d5</t>
+  </si>
+  <si>
+    <t>63e51b274bde7a495d8ec15e</t>
+  </si>
+  <si>
+    <t>63e53cf2bc76bd300c9dc05c</t>
+  </si>
+  <si>
+    <t>63e55cae4bde7a495d8ec7fe</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>63e55ce34bde7a495d8ec81a</t>
+  </si>
+  <si>
+    <t>63e565164bde7a495d8ee7ea</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>63e5d4984bde7a495d8ee8a4</t>
+  </si>
+  <si>
+    <t>Armin</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>63e55e954bde7a495d8ec865</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
@@ -86,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -126,6 +261,363 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin/controllers/thisMonthReport.xlsx
+++ b/admin/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,6 +28,30 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63e22be88db3f87bb229bb74</t>
+  </si>
+  <si>
+    <t>Het B. Patel</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
+    <t>63e1d7198db3f87bb229bb25</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>63dfe8107771d34b50ec1f77</t>
   </si>
   <si>
@@ -37,33 +61,9 @@
     <t>360</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>KOT</t>
-  </si>
-  <si>
     <t>63e1d5998db3f87bb229b9f2</t>
   </si>
   <si>
-    <t>Het B. Patel</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>63e1d7198db3f87bb229bb25</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>63e22be88db3f87bb229bb74</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>63e22d478db3f87bb229bc52</t>
   </si>
   <si>
@@ -71,6 +71,150 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>63e22f0f8db3f87bb229bf35</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>63e22f5e8db3f87bb229bf95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63e22f708db3f87bb229c035</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>63e22f938db3f87bb229c08a</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>63e3b550b7feef2bc93c71a7</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>63e40de811e4eb3328e954f0</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>63e4101e11e4eb3328e95562</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>63e486d511e4eb3328e96458</t>
+  </si>
+  <si>
+    <t>kandarp shah</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>63e4882611e4eb3328e964db</t>
+  </si>
+  <si>
+    <t>63e48b7311e4eb3328e965ad</t>
+  </si>
+  <si>
+    <t>63e4926111e4eb3328e96993</t>
+  </si>
+  <si>
+    <t>63e5100c05861c20302bf08d</t>
+  </si>
+  <si>
+    <t>63e53cf2bc76bd300c9dc05c</t>
+  </si>
+  <si>
+    <t>63e51b274bde7a495d8ec15e</t>
+  </si>
+  <si>
+    <t>63e551ac4bde7a495d8ec7d5</t>
+  </si>
+  <si>
+    <t>63e55cae4bde7a495d8ec7fe</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>63e55ce34bde7a495d8ec81a</t>
+  </si>
+  <si>
+    <t>63e55e954bde7a495d8ec865</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>63e565164bde7a495d8ee7ea</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>63e5d4984bde7a495d8ee8a4</t>
+  </si>
+  <si>
+    <t>Armin</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>63e61a35a743527e2a29a20d</t>
+  </si>
+  <si>
+    <t>63e6504ca743527e2a29a373</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>63e650aca743527e2a29a3b2</t>
+  </si>
+  <si>
+    <t>63e6837804b4c646f8cff8ef</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>63e6846155206a37cc50b08b</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>63e691d11ecee3b620a9c9be</t>
   </si>
 </sst>
 </file>
@@ -116,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -161,10 +305,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -178,13 +322,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
@@ -192,16 +336,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -221,6 +365,448 @@
         <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>9</v>
       </c>
     </row>

--- a/admin/controllers/thisMonthReport.xlsx
+++ b/admin/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,42 +28,42 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63dfe8107771d34b50ec1f77</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
+    <t>63e1d5998db3f87bb229b9f2</t>
+  </si>
+  <si>
+    <t>Het Patel</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63e1d7198db3f87bb229bb25</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>63e22be88db3f87bb229bb74</t>
   </si>
   <si>
-    <t>Het B. Patel</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>KOT</t>
-  </si>
-  <si>
-    <t>63e1d7198db3f87bb229bb25</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>63dfe8107771d34b50ec1f77</t>
-  </si>
-  <si>
-    <t>het</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>63e1d5998db3f87bb229b9f2</t>
-  </si>
-  <si>
     <t>63e22d478db3f87bb229bc52</t>
   </si>
   <si>
@@ -103,27 +103,27 @@
     <t>13</t>
   </si>
   <si>
+    <t>63e40de811e4eb3328e954f0</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>63e4101e11e4eb3328e95562</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>63e3b550b7feef2bc93c71a7</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>63e40de811e4eb3328e954f0</t>
-  </si>
-  <si>
-    <t>1630</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>63e4101e11e4eb3328e95562</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>63e486d511e4eb3328e96458</t>
   </si>
   <si>
@@ -136,27 +136,27 @@
     <t>5</t>
   </si>
   <si>
+    <t>63e48b7311e4eb3328e965ad</t>
+  </si>
+  <si>
+    <t>63e5100c05861c20302bf08d</t>
+  </si>
+  <si>
     <t>63e4882611e4eb3328e964db</t>
   </si>
   <si>
-    <t>63e48b7311e4eb3328e965ad</t>
-  </si>
-  <si>
     <t>63e4926111e4eb3328e96993</t>
   </si>
   <si>
-    <t>63e5100c05861c20302bf08d</t>
+    <t>63e51b274bde7a495d8ec15e</t>
+  </si>
+  <si>
+    <t>63e551ac4bde7a495d8ec7d5</t>
   </si>
   <si>
     <t>63e53cf2bc76bd300c9dc05c</t>
   </si>
   <si>
-    <t>63e51b274bde7a495d8ec15e</t>
-  </si>
-  <si>
-    <t>63e551ac4bde7a495d8ec7d5</t>
-  </si>
-  <si>
     <t>63e55cae4bde7a495d8ec7fe</t>
   </si>
   <si>
@@ -175,46 +175,97 @@
     <t>120</t>
   </si>
   <si>
+    <t>63e5d4984bde7a495d8ee8a4</t>
+  </si>
+  <si>
+    <t>Armin</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
     <t>63e565164bde7a495d8ee7ea</t>
   </si>
   <si>
     <t>220</t>
   </si>
   <si>
-    <t>63e5d4984bde7a495d8ee8a4</t>
-  </si>
-  <si>
-    <t>Armin</t>
-  </si>
-  <si>
-    <t>261</t>
+    <t>63e5fb36d782b95952f8ad0f</t>
   </si>
   <si>
     <t>63e61a35a743527e2a29a20d</t>
   </si>
   <si>
+    <t>63e6224da743527e2a29a268</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>63e6530b1838b8067f676ce2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>63e633d3a743527e2a29a326</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>63e6aaa9e8a68e14cf08c43c</t>
+  </si>
+  <si>
+    <t>63e6ab2de8a68e14cf08c483</t>
+  </si>
+  <si>
+    <t>63e6ab0ee8a68e14cf08c458</t>
+  </si>
+  <si>
+    <t>63e6ab67e8a68e14cf08c4ad</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>63e6504ca743527e2a29a373</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>63e650aca743527e2a29a3b2</t>
   </si>
   <si>
-    <t>63e6837804b4c646f8cff8ef</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>63e6846155206a37cc50b08b</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>63e691d11ecee3b620a9c9be</t>
+    <t>63e6aba0e8a68e14cf08c4c3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>63e6ae35b0dae116a428c0ca</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>63e6ae92b0dae116a428c0f1</t>
+  </si>
+  <si>
+    <t>63e71e583dec9b265ffa80b2</t>
+  </si>
+  <si>
+    <t>63e72354c723902b7ba106e1</t>
+  </si>
+  <si>
+    <t>63e73452686f8a0b203f15ee</t>
+  </si>
+  <si>
+    <t>63e73476b8be1605e0d0dd38</t>
+  </si>
+  <si>
+    <t>63e7347ab8be1605e0d0dd3e</t>
+  </si>
+  <si>
+    <t>63e7347db8be1605e0d0dd44</t>
   </si>
 </sst>
 </file>
@@ -260,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -305,10 +356,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -322,13 +373,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
@@ -336,16 +387,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -379,7 +430,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>9</v>
@@ -396,7 +447,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>9</v>
@@ -441,13 +492,13 @@
         <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>9</v>
@@ -455,16 +506,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>9</v>
@@ -475,13 +526,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>9</v>
@@ -512,10 +563,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>9</v>
@@ -526,10 +577,10 @@
         <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>8</v>
@@ -543,13 +594,13 @@
         <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>9</v>
@@ -560,10 +611,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>12</v>
@@ -577,13 +628,13 @@
         <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>9</v>
@@ -594,13 +645,13 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>9</v>
@@ -611,13 +662,13 @@
         <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>9</v>
@@ -628,7 +679,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>49</v>
@@ -645,13 +696,13 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>9</v>
@@ -662,13 +713,13 @@
         <v>52</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>9</v>
@@ -679,13 +730,13 @@
         <v>54</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>9</v>
@@ -693,16 +744,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>9</v>
@@ -713,13 +764,13 @@
         <v>59</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>9</v>
@@ -733,10 +784,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>9</v>
@@ -744,16 +795,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>9</v>
@@ -764,13 +815,13 @@
         <v>63</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>9</v>
@@ -781,13 +832,13 @@
         <v>65</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>9</v>
@@ -798,15 +849,253 @@
         <v>67</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>9</v>
       </c>
     </row>
